--- a/实际花费.xlsx
+++ b/实际花费.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="总计" sheetId="5" r:id="rId1"/>
+    <sheet name="基装" sheetId="1" r:id="rId2"/>
+    <sheet name="家电" sheetId="4" r:id="rId3"/>
+    <sheet name="家具" sheetId="6" r:id="rId4"/>
+    <sheet name="软装" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽油烟机+灶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -40,11 +40,251 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家电项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
+    <t>瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQ300 XQG80-WD12G4C01W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8公斤 洗烘一体 烘干容量5kg 590*598*848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已定项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开单控*1、双开双控82、电脑插座*2、单开单控*2、10A5孔带开关*1、三开双控*1、单开双控*4、16A三孔带开关*3、5孔带USB*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿致系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2072W 300*600 照明、换气、吹风、取暖、暖风干燥、负离子、自动沐浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暖 触控 2072瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖风浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13升 543*376*148 强排式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13QS04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>321升 风冷无霜 两门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG29NV220C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920*1080 1100ANSI流明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2 slim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投影仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8套 开孔尺寸：560*550*560 外形尺寸：595*500*595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗碗机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔尺寸：703*405*4-R15   外形尺寸：780*450*138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19m3/min 895*399*551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CXW-200-27A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞士卢森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修总花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,12 +317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,17 +330,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,62 +698,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <f>SUM(B2:B5)</f>
+        <v>79657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <f>基装!C8</f>
+        <v>57315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <f>家电!E13</f>
+        <v>22342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <f>家具!E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <f>软装!E9</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <f>SUM(B3:B9)</f>
-        <v>12760</v>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <f>SUM(C2:C7)</f>
+        <v>57315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -497,4 +864,359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4560</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2299</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>239</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3399</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3688</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2699</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3">
+        <v>511</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3">
+        <v>948</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <f>SUM(E2:E12)</f>
+        <v>22342</v>
+      </c>
+      <c r="F13" s="3">
+        <f>SUM(F2:F12)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E2:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E2:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/实际花费.xlsx
+++ b/实际花费.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,14 @@
   </si>
   <si>
     <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,7 +723,7 @@
       </c>
       <c r="B1">
         <f>SUM(B2:B5)</f>
-        <v>79657</v>
+        <v>82907</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -724,7 +732,7 @@
       </c>
       <c r="B2">
         <f>基装!C8</f>
-        <v>57315</v>
+        <v>60565</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -757,6 +765,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -764,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,9 +839,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3250</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
@@ -846,7 +861,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
-        <v>57315</v>
+        <v>60565</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -870,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/实际花费.xlsx
+++ b/实际花费.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E78739C6-834E-48A7-AB5B-4CF8E2BF51A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="5" r:id="rId1"/>
@@ -13,12 +14,12 @@
     <sheet name="家具" sheetId="6" r:id="rId4"/>
     <sheet name="软装" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装修项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双开单控*1、双开双控82、电脑插座*2、单开单控*2、10A5孔带开关*1、三开双控*1、单开双控*4、16A三孔带开关*3、5孔带USB*3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欧普</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暖风浴霸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,30 +209,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>烟机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>凉霸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,46 +229,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装修总花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星月神B268T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉檀香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计（预计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计（实际）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2匹风管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-28平米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修总花费（预计）</t>
+  </si>
+  <si>
+    <t>装修总花费（实际）</t>
   </si>
   <si>
     <t>基装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>家电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>家具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>软装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科勒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计（预计）</t>
+  </si>
+  <si>
+    <t>总计（实际）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,7 +412,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -420,7 +429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -495,6 +504,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -530,6 +556,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,60 +748,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B1">
         <f>SUM(B2:B5)</f>
-        <v>82907</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>118776</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1">
+        <f>SUM(E2:E5)</f>
+        <v>97859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <f>基装!C8</f>
-        <v>60565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <f>基装!C11</f>
+        <v>91014</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <f>基装!C12</f>
+        <v>77734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3">
-        <f>家电!E13</f>
-        <v>22342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <f>家电!E14</f>
+        <v>27762</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <f>家电!E15</f>
+        <v>20125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <f>家具!E9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <f>家具!E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <f>软装!E9</f>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <f>软装!E10</f>
         <v>0</v>
       </c>
     </row>
@@ -770,11 +849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -785,10 +864,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -799,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>32715</v>
@@ -810,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>8200</v>
@@ -818,10 +897,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>6400</v>
@@ -829,10 +908,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4">
         <v>10000</v>
@@ -840,38 +919,81 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>3250</v>
+        <v>19999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3280</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C8" s="2">
-        <f>SUM(C2:C7)</f>
-        <v>60565</v>
-      </c>
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <f>SUM(C2:C9)</f>
+        <v>91014</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
+      <c r="A12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <f>C2+C3+C4+C6+C8+C9</f>
+        <v>77734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -882,16 +1004,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="27.375" style="5" customWidth="1"/>
@@ -901,36 +1023,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3">
         <v>4560</v>
@@ -941,16 +1063,16 @@
     </row>
     <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
@@ -959,16 +1081,16 @@
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3">
         <v>2299</v>
@@ -979,16 +1101,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4">
         <v>3999</v>
@@ -999,10 +1121,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1015,16 +1137,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4">
         <v>3399</v>
@@ -1035,16 +1157,16 @@
     </row>
     <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E8" s="3">
         <v>3688</v>
@@ -1055,16 +1177,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3">
         <v>2699</v>
@@ -1075,16 +1197,16 @@
     </row>
     <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
         <v>511</v>
@@ -1095,16 +1217,16 @@
     </row>
     <row r="11" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3">
         <v>948</v>
@@ -1112,37 +1234,67 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5420</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <f>SUM(E2:E12)</f>
-        <v>22342</v>
-      </c>
-      <c r="F13" s="3">
-        <f>SUM(F2:F12)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>27762</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <f>E2+E4+E8+E9+E10+E11+E12</f>
+        <v>20125</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1153,37 +1305,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1">
+        <f>SUM(E2:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1">
         <f>SUM(E2:E8)</f>
         <v>0</v>
       </c>
@@ -1195,37 +1360,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1">
+        <f>SUM(E2:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1">
         <f>SUM(E2:E8)</f>
         <v>0</v>
       </c>

--- a/实际花费.xlsx
+++ b/实际花费.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E78739C6-834E-48A7-AB5B-4CF8E2BF51A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2C882A7-E425-4483-B4B3-A29A3E7AAA3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双开单控*1、双开双控82、电脑插座*2、单开单控*2、10A5孔带开关*1、三开双控*1、单开双控*4、16A三孔带开关*3、5孔带USB*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>睿致系列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,72 +233,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星月神B268T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉檀香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计（预计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计（实际）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2匹风管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-28平米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修总花费（预计）</t>
+  </si>
+  <si>
+    <t>装修总花费（实际）</t>
+  </si>
+  <si>
+    <t>基装</t>
+  </si>
+  <si>
+    <t>家电</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>软装</t>
+  </si>
+  <si>
+    <t>总计（预计）</t>
+  </si>
+  <si>
+    <t>总计（实际）</t>
+  </si>
+  <si>
+    <t>杜拉维特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开单控*1、双开双控82、电脑插座*2、单开单控*2、10A5孔带开关*1、三开双控*1、单开双控*4、16A三孔带开关*3、5孔带USB*3 5孔*30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>科勒</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防盗门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星月神B268T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉檀香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计（预计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计（实际）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2匹风管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22-28平米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修总花费（预计）</t>
-  </si>
-  <si>
-    <t>装修总花费（实际）</t>
-  </si>
-  <si>
-    <t>基装</t>
-  </si>
-  <si>
-    <t>家电</t>
-  </si>
-  <si>
-    <t>家具</t>
-  </si>
-  <si>
-    <t>软装</t>
-  </si>
-  <si>
-    <t>总计（预计）</t>
-  </si>
-  <si>
-    <t>总计（实际）</t>
   </si>
 </sst>
 </file>
@@ -751,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,62 +771,62 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <f>SUM(B2:B5)</f>
-        <v>118776</v>
+        <v>119039</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1">
         <f>SUM(E2:E5)</f>
-        <v>97859</v>
+        <v>97783</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <f>基装!C11</f>
-        <v>91014</v>
+        <f>基装!C12</f>
+        <v>90581</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <f>基装!C12</f>
-        <v>77734</v>
+        <f>基装!C13</f>
+        <v>76962</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <f>家电!E14</f>
-        <v>27762</v>
+        <v>28458</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <f>家电!E15</f>
-        <v>20125</v>
+        <v>20821</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <f>家具!E9</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <f>家具!E10</f>
@@ -827,14 +835,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <f>软装!E9</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <f>软装!E10</f>
@@ -850,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -908,10 +916,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="C5" s="4">
         <v>10000</v>
@@ -919,7 +927,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -930,10 +938,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4">
         <v>3280</v>
@@ -941,10 +949,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2">
         <v>7190</v>
@@ -952,47 +960,58 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2">
-        <v>3230</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2">
+        <v>339</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2">
-        <f>SUM(C2:C9)</f>
-        <v>91014</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <f>SUM(C2:C10)</f>
+        <v>90581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
         <f>C2+C3+C4+C6+C8+C9</f>
-        <v>77734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+        <v>76962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1008,7 +1027,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1029,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
@@ -1043,16 +1062,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3">
         <v>4560</v>
@@ -1063,16 +1082,16 @@
     </row>
     <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
@@ -1081,16 +1100,16 @@
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3">
         <v>2299</v>
@@ -1101,16 +1120,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>3999</v>
@@ -1121,7 +1140,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
@@ -1137,16 +1156,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4">
         <v>3399</v>
@@ -1160,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -1177,16 +1196,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3">
         <v>2699</v>
@@ -1197,16 +1216,16 @@
     </row>
     <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3">
         <v>511</v>
@@ -1217,34 +1236,34 @@
     </row>
     <row r="11" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3">
-        <v>948</v>
+        <v>1644</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E12" s="3">
         <v>5420</v>
@@ -1263,27 +1282,27 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <f>SUM(E2:E12)</f>
-        <v>27762</v>
+        <v>28458</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <f>E2+E4+E8+E9+E10+E11+E12</f>
-        <v>20125</v>
+        <v>20821</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1326,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -1337,7 +1356,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1">
         <f>SUM(E2:E8)</f>
@@ -1346,7 +1365,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1">
         <f>SUM(E2:E8)</f>
@@ -1381,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -1392,7 +1411,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1">
         <f>SUM(E2:E8)</f>
@@ -1401,7 +1420,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1">
         <f>SUM(E2:E8)</f>

--- a/实际花费.xlsx
+++ b/实际花费.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2C882A7-E425-4483-B4B3-A29A3E7AAA3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="5" r:id="rId1"/>
@@ -14,12 +13,12 @@
     <sheet name="家具" sheetId="6" r:id="rId4"/>
     <sheet name="软装" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,18 +304,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科勒</t>
+    <t>门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,7 +435,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -437,7 +452,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,23 +527,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -564,23 +562,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -756,7 +737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -775,14 +756,14 @@
       </c>
       <c r="B1">
         <f>SUM(B2:B5)</f>
-        <v>119039</v>
+        <v>129794</v>
       </c>
       <c r="D1" t="s">
         <v>64</v>
       </c>
       <c r="E1">
         <f>SUM(E2:E5)</f>
-        <v>97783</v>
+        <v>99677</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -790,15 +771,15 @@
         <v>65</v>
       </c>
       <c r="B2">
-        <f>基装!C12</f>
-        <v>90581</v>
+        <f>基装!C14</f>
+        <v>102980</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
       <c r="E2">
-        <f>基装!C13</f>
-        <v>76962</v>
+        <f>基装!C15</f>
+        <v>80500</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -807,14 +788,14 @@
       </c>
       <c r="B3">
         <f>家电!E14</f>
-        <v>28458</v>
+        <v>26814</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
       </c>
       <c r="E3">
         <f>家电!E15</f>
-        <v>20821</v>
+        <v>19177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -857,11 +838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -900,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>8200</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -971,47 +952,67 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="2">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>9200</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <f>SUM(C2:C10)</f>
-        <v>90581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <f>C2+C3+C4+C6+C8+C9</f>
-        <v>76962</v>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <f>SUM(C2:C11)</f>
+        <v>102980</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <f>C2+C3+C4+C6+C8+C9</f>
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1023,11 +1024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,7 +1249,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="3">
-        <v>1644</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1289,7 +1290,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <f>SUM(E2:E12)</f>
-        <v>28458</v>
+        <v>26814</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1302,7 +1303,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <f>E2+E4+E8+E9+E10+E11+E12</f>
-        <v>20821</v>
+        <v>19177</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1324,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1379,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
